--- a/generated_agenda.xlsx
+++ b/generated_agenda.xlsx
@@ -916,7 +916,7 @@
       <c r="C2" s="7" t="n"/>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>第313次线下会议-中文会议</t>
+          <t>第318次线下会议-中文会议</t>
         </is>
       </c>
       <c r="N2" s="9" t="n"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>即兴演讲</t>
+          <t>备稿演讲</t>
         </is>
       </c>
       <c r="C22" s="30" t="n"/>
@@ -1639,7 +1639,7 @@
       <c r="F22" s="31" t="n"/>
       <c r="G22" s="46" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H22" s="47" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <row customHeight="1" ht="24" r="23">
       <c r="A23" s="35" t="inlineStr">
         <is>
-          <t>主持人串词</t>
+          <t>主持人介绍及中场串词</t>
         </is>
       </c>
       <c r="B23" s="30" t="n"/>
@@ -1713,7 +1713,7 @@
     <row customHeight="1" ht="24" r="24">
       <c r="A24" s="35" t="inlineStr">
         <is>
-          <t>即兴主持人</t>
+          <t>备稿演讲《xxx》L3P1</t>
         </is>
       </c>
       <c r="B24" s="30" t="n"/>
@@ -1723,7 +1723,7 @@
       <c r="F24" s="31" t="n"/>
       <c r="G24" s="49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H24" s="50" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="I24" s="36" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:31</t>
         </is>
       </c>
       <c r="J24" s="51" t="inlineStr">
         <is>
-          <t>大王</t>
+          <t>大学</t>
         </is>
       </c>
       <c r="K24" s="57" t="inlineStr">
@@ -1753,7 +1753,7 @@
     <row customHeight="1" ht="24" r="25">
       <c r="A25" s="35" t="inlineStr">
         <is>
-          <t>即兴演讲《诗和远方》（演讲每人2分钟，邀请串场1分钟）</t>
+          <t>主持人介绍及中场串词</t>
         </is>
       </c>
       <c r="B25" s="30" t="n"/>
@@ -1763,7 +1763,7 @@
       <c r="F25" s="31" t="n"/>
       <c r="G25" s="49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H25" s="50" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="I25" s="36" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="J25" s="51" t="inlineStr">
         <is>
-          <t>会员&amp;宾客</t>
+          <t>小王</t>
         </is>
       </c>
       <c r="K25" s="58" t="inlineStr">
@@ -1794,7 +1794,7 @@
     <row customHeight="1" ht="24" r="26">
       <c r="A26" s="35" t="inlineStr">
         <is>
-          <t>即兴点评报告</t>
+          <t>备稿演讲《成为自己》L3P3</t>
         </is>
       </c>
       <c r="B26" s="30" t="n"/>
@@ -1814,12 +1814,12 @@
       </c>
       <c r="I26" s="36" t="inlineStr">
         <is>
-          <t>15:51</t>
+          <t>15:39</t>
         </is>
       </c>
       <c r="J26" s="51" t="inlineStr">
         <is>
-          <t>大红</t>
+          <t>小雪</t>
         </is>
       </c>
       <c r="K26" s="6" t="n"/>
@@ -1828,7 +1828,7 @@
     <row customHeight="1" ht="24" r="27">
       <c r="A27" s="35" t="inlineStr">
         <is>
-          <t>主持人串词</t>
+          <t>主持人介绍及中场串词</t>
         </is>
       </c>
       <c r="B27" s="30" t="n"/>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="I27" s="36" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="J27" s="51" t="inlineStr">
@@ -1859,33 +1859,37 @@
       <c r="K27" s="6" t="n"/>
       <c r="N27" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="28">
-      <c r="A28" s="45" t="inlineStr">
-        <is>
-          <t>15:52</t>
-        </is>
-      </c>
-      <c r="B28" s="29" t="inlineStr">
-        <is>
-          <t>备稿演讲</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="24" r="28">
+      <c r="A28" s="35" t="inlineStr">
+        <is>
+          <t>备稿演讲《孩子教会了我什么？》L1P1</t>
+        </is>
+      </c>
+      <c r="B28" s="30" t="n"/>
       <c r="C28" s="30" t="n"/>
       <c r="D28" s="30" t="n"/>
       <c r="E28" s="30" t="n"/>
       <c r="F28" s="31" t="n"/>
-      <c r="G28" s="46" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H28" s="47" t="inlineStr">
-        <is>
-          <t>mins</t>
-        </is>
-      </c>
-      <c r="I28" s="48" t="n"/>
-      <c r="J28" s="48" t="n"/>
+      <c r="G28" s="49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H28" s="50" t="inlineStr">
+        <is>
+          <t>mins</t>
+        </is>
+      </c>
+      <c r="I28" s="36" t="inlineStr">
+        <is>
+          <t>15:47</t>
+        </is>
+      </c>
+      <c r="J28" s="51" t="inlineStr">
+        <is>
+          <t>小牛</t>
+        </is>
+      </c>
       <c r="K28" s="6" t="n"/>
       <c r="N28" s="59" t="n"/>
     </row>
@@ -1912,7 +1916,7 @@
       </c>
       <c r="I29" s="36" t="inlineStr">
         <is>
-          <t>15:53</t>
+          <t>15:48</t>
         </is>
       </c>
       <c r="J29" s="51" t="inlineStr">
@@ -1923,37 +1927,33 @@
       <c r="K29" s="6" t="n"/>
       <c r="N29" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="30">
-      <c r="A30" s="35" t="inlineStr">
-        <is>
-          <t>备稿演讲《xxx》L3P1</t>
-        </is>
-      </c>
-      <c r="B30" s="30" t="n"/>
+    <row customHeight="1" ht="15.75" r="30">
+      <c r="A30" s="45" t="inlineStr">
+        <is>
+          <t>15:48</t>
+        </is>
+      </c>
+      <c r="B30" s="29" t="inlineStr">
+        <is>
+          <t>备稿点评</t>
+        </is>
+      </c>
       <c r="C30" s="30" t="n"/>
       <c r="D30" s="30" t="n"/>
       <c r="E30" s="30" t="n"/>
       <c r="F30" s="31" t="n"/>
-      <c r="G30" s="49" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H30" s="50" t="inlineStr">
-        <is>
-          <t>mins</t>
-        </is>
-      </c>
-      <c r="I30" s="36" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="J30" s="51" t="inlineStr">
-        <is>
-          <t>大学</t>
-        </is>
-      </c>
+      <c r="G30" s="46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H30" s="47" t="inlineStr">
+        <is>
+          <t>mins</t>
+        </is>
+      </c>
+      <c r="I30" s="48" t="n"/>
+      <c r="J30" s="48" t="n"/>
       <c r="K30" s="6" t="n"/>
       <c r="N30" s="59" t="n"/>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="I31" s="36" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>15:49</t>
         </is>
       </c>
       <c r="J31" s="51" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row customHeight="1" ht="24" r="32">
       <c r="A32" s="35" t="inlineStr">
         <is>
-          <t>备稿演讲《成为自己》L3P3</t>
+          <t>备稿点评《Paul&amp;Allen》</t>
         </is>
       </c>
       <c r="B32" s="30" t="n"/>
@@ -2006,7 +2006,7 @@
       <c r="F32" s="31" t="n"/>
       <c r="G32" s="49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H32" s="50" t="inlineStr">
@@ -2016,19 +2016,19 @@
       </c>
       <c r="I32" s="36" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="J32" s="51" t="inlineStr">
         <is>
-          <t>小雪</t>
+          <t>老张</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="24" r="33">
       <c r="A33" s="35" t="inlineStr">
         <is>
-          <t>主持人介绍及中场串词</t>
+          <t>备稿点评《成为自己》</t>
         </is>
       </c>
       <c r="B33" s="30" t="n"/>
@@ -2038,7 +2038,7 @@
       <c r="F33" s="31" t="n"/>
       <c r="G33" s="49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H33" s="50" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="I33" s="36" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="J33" s="51" t="inlineStr">
         <is>
-          <t>小王</t>
+          <t>老王</t>
         </is>
       </c>
       <c r="K33" s="57" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row customHeight="1" ht="24.75" r="34">
       <c r="A34" s="35" t="inlineStr">
         <is>
-          <t>备稿演讲《孩子教会了我什么？》L1P1</t>
+          <t>备稿点评《孩子教会了我什么？》</t>
         </is>
       </c>
       <c r="B34" s="30" t="n"/>
@@ -2078,7 +2078,7 @@
       <c r="F34" s="31" t="n"/>
       <c r="G34" s="49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H34" s="50" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="I34" s="36" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="J34" s="51" t="inlineStr">
         <is>
-          <t>小牛</t>
+          <t>老黄</t>
         </is>
       </c>
       <c r="K34" s="58" t="inlineStr">
@@ -2113,48 +2113,44 @@
       <c r="N34" s="39" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35">
-      <c r="A35" s="35" t="inlineStr">
-        <is>
-          <t>主持人介绍及中场串词</t>
-        </is>
-      </c>
-      <c r="B35" s="30" t="n"/>
+      <c r="A35" s="45" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>小歇及合影</t>
+        </is>
+      </c>
       <c r="C35" s="30" t="n"/>
       <c r="D35" s="30" t="n"/>
       <c r="E35" s="30" t="n"/>
       <c r="F35" s="31" t="n"/>
-      <c r="G35" s="49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H35" s="50" t="inlineStr">
-        <is>
-          <t>mins</t>
-        </is>
-      </c>
-      <c r="I35" s="36" t="inlineStr">
-        <is>
-          <t>16:17</t>
-        </is>
-      </c>
-      <c r="J35" s="51" t="inlineStr">
-        <is>
-          <t>小王</t>
-        </is>
-      </c>
+      <c r="G35" s="46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H35" s="47" t="inlineStr">
+        <is>
+          <t>mins</t>
+        </is>
+      </c>
+      <c r="I35" s="48" t="n"/>
+      <c r="J35" s="48" t="n"/>
       <c r="K35" s="6" t="n"/>
       <c r="N35" s="59" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="36">
       <c r="A36" s="45" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:03</t>
         </is>
       </c>
       <c r="B36" s="29" t="inlineStr">
         <is>
-          <t>小歇及合影</t>
+          <t>即兴演讲</t>
         </is>
       </c>
       <c r="C36" s="30" t="n"/>
@@ -2163,7 +2159,7 @@
       <c r="F36" s="31" t="n"/>
       <c r="G36" s="46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H36" s="47" t="inlineStr">
@@ -2177,39 +2173,43 @@
       <c r="N36" s="59" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37">
-      <c r="A37" s="45" t="inlineStr">
-        <is>
-          <t>16:22</t>
-        </is>
-      </c>
-      <c r="B37" s="29" t="inlineStr">
-        <is>
-          <t>备稿点评</t>
-        </is>
-      </c>
+      <c r="A37" s="35" t="inlineStr">
+        <is>
+          <t>主持人串词</t>
+        </is>
+      </c>
+      <c r="B37" s="30" t="n"/>
       <c r="C37" s="30" t="n"/>
       <c r="D37" s="30" t="n"/>
       <c r="E37" s="30" t="n"/>
       <c r="F37" s="31" t="n"/>
-      <c r="G37" s="46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H37" s="47" t="inlineStr">
-        <is>
-          <t>mins</t>
-        </is>
-      </c>
-      <c r="I37" s="48" t="n"/>
-      <c r="J37" s="48" t="n"/>
+      <c r="G37" s="49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" s="50" t="inlineStr">
+        <is>
+          <t>mins</t>
+        </is>
+      </c>
+      <c r="I37" s="36" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="J37" s="51" t="inlineStr">
+        <is>
+          <t>小王</t>
+        </is>
+      </c>
       <c r="K37" s="6" t="n"/>
       <c r="N37" s="59" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38">
       <c r="A38" s="35" t="inlineStr">
         <is>
-          <t>主持人介绍及中场串词</t>
+          <t>即兴主持人</t>
         </is>
       </c>
       <c r="B38" s="30" t="n"/>
@@ -2219,7 +2219,7 @@
       <c r="F38" s="31" t="n"/>
       <c r="G38" s="49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H38" s="50" t="inlineStr">
@@ -2229,12 +2229,12 @@
       </c>
       <c r="I38" s="36" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="J38" s="51" t="inlineStr">
         <is>
-          <t>小王</t>
+          <t>大王</t>
         </is>
       </c>
       <c r="K38" s="6" t="n"/>
@@ -2243,7 +2243,7 @@
     <row customHeight="1" ht="24" r="39">
       <c r="A39" s="35" t="inlineStr">
         <is>
-          <t>备稿点评《Paul&amp;Allen》</t>
+          <t>即兴演讲《诗和远方》（演讲每人2分钟，邀请串场1分钟）</t>
         </is>
       </c>
       <c r="B39" s="30" t="n"/>
@@ -2253,7 +2253,7 @@
       <c r="F39" s="31" t="n"/>
       <c r="G39" s="49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H39" s="50" t="inlineStr">
@@ -2263,12 +2263,12 @@
       </c>
       <c r="I39" s="36" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="J39" s="51" t="inlineStr">
         <is>
-          <t>老张</t>
+          <t>会员&amp;宾客</t>
         </is>
       </c>
       <c r="K39" s="6" t="n"/>
@@ -2277,7 +2277,7 @@
     <row customHeight="1" ht="24" r="40">
       <c r="A40" s="35" t="inlineStr">
         <is>
-          <t>备稿点评《成为自己》</t>
+          <t>即兴点评报告</t>
         </is>
       </c>
       <c r="B40" s="30" t="n"/>
@@ -2287,7 +2287,7 @@
       <c r="F40" s="31" t="n"/>
       <c r="G40" s="49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H40" s="50" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="I40" s="36" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="J40" s="51" t="inlineStr">
         <is>
-          <t>老王</t>
+          <t>大红</t>
         </is>
       </c>
       <c r="K40" s="6" t="n"/>
@@ -2311,7 +2311,7 @@
     <row customHeight="1" ht="24" r="41">
       <c r="A41" s="35" t="inlineStr">
         <is>
-          <t>备稿点评《孩子教会了我什么？》</t>
+          <t>主持人串词</t>
         </is>
       </c>
       <c r="B41" s="30" t="n"/>
@@ -2321,7 +2321,7 @@
       <c r="F41" s="31" t="n"/>
       <c r="G41" s="49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H41" s="50" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="J41" s="51" t="inlineStr">
         <is>
-          <t>老黄</t>
+          <t>小王</t>
         </is>
       </c>
       <c r="K41" s="42" t="n"/>
@@ -2890,7 +2890,6 @@
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B54:J54"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A35:F35"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="K24:N24"/>
     <mergeCell ref="A25:F25"/>
@@ -2902,7 +2901,6 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="M47:N47"/>
-    <mergeCell ref="B37:F37"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="C4:D4"/>
@@ -2924,7 +2922,7 @@
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="A43:F43"/>
@@ -2935,8 +2933,8 @@
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="B48:J48"/>
     <mergeCell ref="A38:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="K50:L50"/>
-    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="K11:N11"/>
@@ -2953,6 +2951,7 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="A39:F39"/>
+    <mergeCell ref="B30:F30"/>
     <mergeCell ref="M50:N50"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A17:F17"/>
@@ -2963,6 +2962,7 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K33:N33"/>
+    <mergeCell ref="A28:F28"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M51:N51"/>
     <mergeCell ref="M46:N46"/>
